--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.877313</v>
+        <v>1.175812333333333</v>
       </c>
       <c r="H2">
-        <v>5.631939</v>
+        <v>3.527437</v>
       </c>
       <c r="I2">
-        <v>0.09253425024289272</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="J2">
-        <v>0.0925342502428927</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.98606933333333</v>
+        <v>0.191891</v>
       </c>
       <c r="N2">
-        <v>56.95820799999999</v>
+        <v>0.575673</v>
       </c>
       <c r="O2">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="P2">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="Q2">
-        <v>35.64279477836799</v>
+        <v>0.2256278044556667</v>
       </c>
       <c r="R2">
-        <v>320.7851530053119</v>
+        <v>2.030650240101</v>
       </c>
       <c r="S2">
-        <v>0.08140430393862021</v>
+        <v>0.002419397011000665</v>
       </c>
       <c r="T2">
-        <v>0.08140430393862019</v>
+        <v>0.002419397011000665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.877313</v>
+        <v>1.175812333333333</v>
       </c>
       <c r="H3">
-        <v>5.631939</v>
+        <v>3.527437</v>
       </c>
       <c r="I3">
-        <v>0.09253425024289272</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="J3">
-        <v>0.0925342502428927</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.367471</v>
       </c>
       <c r="O3">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855653</v>
       </c>
       <c r="P3">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855652</v>
       </c>
       <c r="Q3">
-        <v>2.107265695141</v>
+        <v>1.319837977980778</v>
       </c>
       <c r="R3">
-        <v>18.965391256269</v>
+        <v>11.878541801827</v>
       </c>
       <c r="S3">
-        <v>0.004812767859348549</v>
+        <v>0.01415256451497886</v>
       </c>
       <c r="T3">
-        <v>0.004812767859348548</v>
+        <v>0.01415256451497886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.877313</v>
+        <v>1.175812333333333</v>
       </c>
       <c r="H4">
-        <v>5.631939</v>
+        <v>3.527437</v>
       </c>
       <c r="I4">
-        <v>0.09253425024289272</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="J4">
-        <v>0.0925342502428927</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.473366666666666</v>
+        <v>1.363254333333333</v>
       </c>
       <c r="N4">
-        <v>4.4201</v>
+        <v>4.089763</v>
       </c>
       <c r="O4">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="P4">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="Q4">
-        <v>2.7659703971</v>
+        <v>1.602931258603444</v>
       </c>
       <c r="R4">
-        <v>24.8937335739</v>
+        <v>14.426381327431</v>
       </c>
       <c r="S4">
-        <v>0.006317178444923956</v>
+        <v>0.01718816129625866</v>
       </c>
       <c r="T4">
-        <v>0.006317178444923955</v>
+        <v>0.01718816129625866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>11.042502</v>
       </c>
       <c r="I5">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="J5">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.98606933333333</v>
+        <v>0.191891</v>
       </c>
       <c r="N5">
-        <v>56.95820799999999</v>
+        <v>0.575673</v>
       </c>
       <c r="O5">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="P5">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="Q5">
-        <v>69.88456952849066</v>
+        <v>0.7063189170940001</v>
       </c>
       <c r="R5">
-        <v>628.961125756416</v>
+        <v>6.356870253846</v>
       </c>
       <c r="S5">
-        <v>0.1596088290464122</v>
+        <v>0.00757382664318849</v>
       </c>
       <c r="T5">
-        <v>0.1596088290464122</v>
+        <v>0.007573826643188489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.042502</v>
       </c>
       <c r="I6">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="J6">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.367471</v>
       </c>
       <c r="O6">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855653</v>
       </c>
       <c r="P6">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855652</v>
       </c>
       <c r="Q6">
         <v>4.131700583604667</v>
@@ -818,10 +818,10 @@
         <v>37.18530525244201</v>
       </c>
       <c r="S6">
-        <v>0.009436359078532646</v>
+        <v>0.04430404340652522</v>
       </c>
       <c r="T6">
-        <v>0.009436359078532646</v>
+        <v>0.0443040434065252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.042502</v>
       </c>
       <c r="I7">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="J7">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.473366666666666</v>
+        <v>1.363254333333333</v>
       </c>
       <c r="N7">
-        <v>4.4201</v>
+        <v>4.089763</v>
       </c>
       <c r="O7">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="P7">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="Q7">
-        <v>5.423218121133333</v>
+        <v>5.017912900780666</v>
       </c>
       <c r="R7">
-        <v>48.8089630902</v>
+        <v>45.161216107026</v>
       </c>
       <c r="S7">
-        <v>0.01238604601584457</v>
+        <v>0.05380685905666322</v>
       </c>
       <c r="T7">
-        <v>0.01238604601584457</v>
+        <v>0.05380685905666321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.72961666666667</v>
+        <v>29.97179133333333</v>
       </c>
       <c r="H8">
-        <v>44.18885</v>
+        <v>89.915374</v>
       </c>
       <c r="I8">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="J8">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.98606933333333</v>
+        <v>0.191891</v>
       </c>
       <c r="N8">
-        <v>56.95820799999999</v>
+        <v>0.575673</v>
       </c>
       <c r="O8">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="P8">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="Q8">
-        <v>279.6575232867555</v>
+        <v>5.751317010744667</v>
       </c>
       <c r="R8">
-        <v>2516.9177095808</v>
+        <v>51.761853096702</v>
       </c>
       <c r="S8">
-        <v>0.6387076593155745</v>
+        <v>0.06167111903022136</v>
       </c>
       <c r="T8">
-        <v>0.6387076593155745</v>
+        <v>0.06167111903022136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.72961666666667</v>
+        <v>29.97179133333333</v>
       </c>
       <c r="H9">
-        <v>44.18885</v>
+        <v>89.915374</v>
       </c>
       <c r="I9">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="J9">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.367471</v>
       </c>
       <c r="O9">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855653</v>
       </c>
       <c r="P9">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855652</v>
       </c>
       <c r="Q9">
-        <v>16.53385232203889</v>
+        <v>33.64304604435044</v>
       </c>
       <c r="R9">
-        <v>148.80467089835</v>
+        <v>302.787414399154</v>
       </c>
       <c r="S9">
-        <v>0.03776153772645161</v>
+        <v>0.3607529011640612</v>
       </c>
       <c r="T9">
-        <v>0.03776153772645161</v>
+        <v>0.3607529011640611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.72961666666667</v>
+        <v>29.97179133333333</v>
       </c>
       <c r="H10">
-        <v>44.18885</v>
+        <v>89.915374</v>
       </c>
       <c r="I10">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="J10">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.473366666666666</v>
+        <v>1.363254333333333</v>
       </c>
       <c r="N10">
-        <v>4.4201</v>
+        <v>4.089763</v>
       </c>
       <c r="O10">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="P10">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="Q10">
-        <v>21.70212620944444</v>
+        <v>40.8591744129291</v>
       </c>
       <c r="R10">
-        <v>195.319135885</v>
+        <v>367.732569716362</v>
       </c>
       <c r="S10">
-        <v>0.04956531857429172</v>
+        <v>0.4381311278771025</v>
       </c>
       <c r="T10">
-        <v>0.04956531857429172</v>
+        <v>0.4381311278771025</v>
       </c>
     </row>
   </sheetData>
